--- a/RUDN/Importance/Varible_class_in_Eastern Africa.xlsx
+++ b/RUDN/Importance/Varible_class_in_Eastern Africa.xlsx
@@ -14,21 +14,291 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
   </si>
   <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
     <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
 </sst>
 </file>
@@ -386,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4190371666990822</v>
+        <v>0.1441281139850616</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2872131341798465</v>
+        <v>0.1103202849626541</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1227910238429173</v>
+        <v>0.09074733406305313</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1069801806544982</v>
+        <v>0.05871886014938354</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +704,727 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06397849462365593</v>
+        <v>0.05516014248132706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.05516014248132706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.05160142481327057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.04448398575186729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.03202847018837929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.03024910949170589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.02313167229294777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.01779359392821789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.01601423509418964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.01601423509418964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.01245551556348801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.01245551556348801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.01245551556348801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.008896796964108944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.008896796964108944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.005338078364729881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.005338078364729881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.005338078364729881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.005338078364729881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.005338078364729881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.005338078364729881</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.005338078364729881</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.005338078364729881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.003558718832209706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.001779359416104853</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.001779359416104853</v>
       </c>
     </row>
   </sheetData>
